--- a/Incentive_COM/result/Đặng Thị Huyền.xlsx
+++ b/Incentive_COM/result/Đặng Thị Huyền.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -134,55 +134,55 @@
     <t>Đặng Thị Huyền</t>
   </si>
   <si>
-    <t xml:space="preserve">Trần Thị Tường Vân </t>
+    <t>Đoàn Nguyễn Dạ Dương</t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>11.89%</t>
-  </si>
-  <si>
-    <t>68.85%</t>
-  </si>
-  <si>
-    <t>111.24%</t>
-  </si>
-  <si>
-    <t>4.68%</t>
-  </si>
-  <si>
-    <t>77.94%</t>
-  </si>
-  <si>
-    <t>47.83%</t>
-  </si>
-  <si>
-    <t>31.10%</t>
-  </si>
-  <si>
-    <t>24.14%</t>
-  </si>
-  <si>
-    <t>29.60%</t>
-  </si>
-  <si>
-    <t>57.12%</t>
-  </si>
-  <si>
-    <t>64.67%</t>
-  </si>
-  <si>
-    <t>58.96%</t>
-  </si>
-  <si>
-    <t>704.93%</t>
-  </si>
-  <si>
-    <t>375.52%</t>
+    <t>46.69%</t>
+  </si>
+  <si>
+    <t>108.94%</t>
+  </si>
+  <si>
+    <t>48.50%</t>
+  </si>
+  <si>
+    <t>151.37%</t>
+  </si>
+  <si>
+    <t>113.74%</t>
+  </si>
+  <si>
+    <t>150.39%</t>
+  </si>
+  <si>
+    <t>105.49%</t>
+  </si>
+  <si>
+    <t>30.72%</t>
+  </si>
+  <si>
+    <t>27.62%</t>
+  </si>
+  <si>
+    <t>30.05%</t>
+  </si>
+  <si>
+    <t>28.34%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>28.05%</t>
+  </si>
+  <si>
+    <t>24.29%</t>
+  </si>
+  <si>
+    <t>143.01%</t>
   </si>
   <si>
     <t>Name</t>
@@ -191,13 +191,22 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>59.65%</t>
-  </si>
-  <si>
-    <t>58.73%</t>
-  </si>
-  <si>
-    <t>696.21%</t>
+    <t>78.49%</t>
+  </si>
+  <si>
+    <t>89.50%</t>
+  </si>
+  <si>
+    <t>26.17%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>3.00%</t>
   </si>
 </sst>
 </file>
@@ -670,10 +679,10 @@
         <v>40</v>
       </c>
       <c r="J2" s="2">
-        <v>70011</v>
+        <v>13224</v>
       </c>
       <c r="K2" s="2">
-        <v>93348</v>
+        <v>28326.00000000001</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>41</v>
@@ -688,10 +697,10 @@
         <v>40</v>
       </c>
       <c r="P2" s="2">
-        <v>9661.518</v>
+        <v>1666.224</v>
       </c>
       <c r="Q2" s="2">
-        <v>12882.024</v>
+        <v>3569.076000000001</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>41</v>
@@ -729,10 +738,10 @@
         <v>40</v>
       </c>
       <c r="J3" s="2">
-        <v>1199</v>
+        <v>926</v>
       </c>
       <c r="K3" s="2">
-        <v>10086</v>
+        <v>850</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -747,10 +756,10 @@
         <v>40</v>
       </c>
       <c r="P3" s="2">
-        <v>165.462</v>
+        <v>116.676</v>
       </c>
       <c r="Q3" s="2">
-        <v>1391.868</v>
+        <v>107.1</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>42</v>
@@ -788,10 +797,10 @@
         <v>40</v>
       </c>
       <c r="J4" s="3">
-        <v>71210</v>
+        <v>14150</v>
       </c>
       <c r="K4" s="3">
-        <v>103434</v>
+        <v>29176.00000000001</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>43</v>
@@ -806,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="P4" s="3">
-        <v>9826.98</v>
+        <v>1782.9</v>
       </c>
       <c r="Q4" s="3">
-        <v>14273.892</v>
+        <v>3676.176000000001</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>43</v>
@@ -847,10 +856,10 @@
         <v>40</v>
       </c>
       <c r="J5" s="2">
-        <v>88108</v>
+        <v>54594</v>
       </c>
       <c r="K5" s="2">
-        <v>79204</v>
+        <v>36066</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>44</v>
@@ -865,10 +874,10 @@
         <v>40</v>
       </c>
       <c r="P5" s="2">
-        <v>12158.904</v>
+        <v>6878.844</v>
       </c>
       <c r="Q5" s="2">
-        <v>10930.152</v>
+        <v>4544.316</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>44</v>
@@ -906,10 +915,10 @@
         <v>40</v>
       </c>
       <c r="J6" s="2">
-        <v>1685</v>
+        <v>1101</v>
       </c>
       <c r="K6" s="2">
-        <v>36000</v>
+        <v>968</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>45</v>
@@ -924,10 +933,10 @@
         <v>40</v>
       </c>
       <c r="P6" s="2">
-        <v>232.53</v>
+        <v>138.726</v>
       </c>
       <c r="Q6" s="2">
-        <v>4968</v>
+        <v>121.968</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>45</v>
@@ -965,10 +974,10 @@
         <v>40</v>
       </c>
       <c r="J7" s="3">
-        <v>89793</v>
+        <v>55695</v>
       </c>
       <c r="K7" s="3">
-        <v>115204</v>
+        <v>37034</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>46</v>
@@ -983,10 +992,10 @@
         <v>40</v>
       </c>
       <c r="P7" s="3">
-        <v>12391.434</v>
+        <v>7017.57</v>
       </c>
       <c r="Q7" s="3">
-        <v>15898.152</v>
+        <v>4666.284</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>46</v>
@@ -1024,10 +1033,10 @@
         <v>40</v>
       </c>
       <c r="J8" s="2">
-        <v>76535</v>
+        <v>34191</v>
       </c>
       <c r="K8" s="2">
-        <v>160000</v>
+        <v>32413</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>47</v>
@@ -1042,10 +1051,10 @@
         <v>40</v>
       </c>
       <c r="P8" s="2">
-        <v>10561.83</v>
+        <v>4308.066</v>
       </c>
       <c r="Q8" s="2">
-        <v>22080</v>
+        <v>4084.038</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>47</v>
@@ -1083,10 +1092,10 @@
         <v>40</v>
       </c>
       <c r="J9" s="3">
-        <v>76535</v>
+        <v>34191</v>
       </c>
       <c r="K9" s="3">
-        <v>160000</v>
+        <v>32413</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>47</v>
@@ -1101,10 +1110,10 @@
         <v>40</v>
       </c>
       <c r="P9" s="3">
-        <v>10561.83</v>
+        <v>4308.066</v>
       </c>
       <c r="Q9" s="3">
-        <v>22080</v>
+        <v>4084.038</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>47</v>
@@ -1142,10 +1151,10 @@
         <v>40</v>
       </c>
       <c r="J10" s="2">
-        <v>9332</v>
+        <v>6169</v>
       </c>
       <c r="K10" s="2">
-        <v>30004</v>
+        <v>20083</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>48</v>
@@ -1160,10 +1169,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="2">
-        <v>1754.416</v>
+        <v>475.013</v>
       </c>
       <c r="Q10" s="2">
-        <v>5640.752</v>
+        <v>1546.391</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>48</v>
@@ -1201,10 +1210,10 @@
         <v>40</v>
       </c>
       <c r="J11" s="2">
-        <v>2001</v>
+        <v>1531</v>
       </c>
       <c r="K11" s="2">
-        <v>8288</v>
+        <v>5543</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>49</v>
@@ -1219,10 +1228,10 @@
         <v>40</v>
       </c>
       <c r="P11" s="2">
-        <v>376.188</v>
+        <v>117.887</v>
       </c>
       <c r="Q11" s="2">
-        <v>1558.144</v>
+        <v>426.811</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>49</v>
@@ -1260,10 +1269,10 @@
         <v>40</v>
       </c>
       <c r="J12" s="3">
-        <v>11333</v>
+        <v>7700</v>
       </c>
       <c r="K12" s="3">
-        <v>38292</v>
+        <v>25626</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>50</v>
@@ -1278,10 +1287,10 @@
         <v>40</v>
       </c>
       <c r="P12" s="3">
-        <v>2130.604</v>
+        <v>592.9</v>
       </c>
       <c r="Q12" s="3">
-        <v>7198.896000000001</v>
+        <v>1973.202</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>50</v>
@@ -1319,10 +1328,10 @@
         <v>40</v>
       </c>
       <c r="J13" s="2">
-        <v>10760</v>
+        <v>5838</v>
       </c>
       <c r="K13" s="2">
-        <v>18836.99999999996</v>
+        <v>20602.99999999996</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>51</v>
@@ -1337,10 +1346,10 @@
         <v>40</v>
       </c>
       <c r="P13" s="2">
-        <v>1269.68</v>
+        <v>274.386</v>
       </c>
       <c r="Q13" s="2">
-        <v>2222.765999999995</v>
+        <v>968.340999999998</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>51</v>
@@ -1378,10 +1387,10 @@
         <v>40</v>
       </c>
       <c r="J14" s="2">
-        <v>3912</v>
+        <v>2066</v>
       </c>
       <c r="K14" s="2">
-        <v>6048.999999999995</v>
+        <v>7575</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>52</v>
@@ -1396,10 +1405,10 @@
         <v>40</v>
       </c>
       <c r="P14" s="2">
-        <v>461.616</v>
+        <v>97.102</v>
       </c>
       <c r="Q14" s="2">
-        <v>713.7819999999995</v>
+        <v>356.025</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>52</v>
@@ -1437,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="3">
-        <v>14672</v>
+        <v>7904</v>
       </c>
       <c r="K15" s="3">
-        <v>24885.99999999995</v>
+        <v>28177.99999999996</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>53</v>
@@ -1455,10 +1464,10 @@
         <v>40</v>
       </c>
       <c r="P15" s="3">
-        <v>1731.296</v>
+        <v>371.4880000000001</v>
       </c>
       <c r="Q15" s="3">
-        <v>2936.547999999994</v>
+        <v>1324.365999999998</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>53</v>
@@ -1535,10 +1544,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>71210</v>
+        <v>14150</v>
       </c>
       <c r="F2" s="2">
-        <v>103434</v>
+        <v>29176.00000000001</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
@@ -1547,10 +1556,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>9826.98</v>
+        <v>1782.9</v>
       </c>
       <c r="L2" s="2">
-        <v>14273.892</v>
+        <v>3676.176000000001</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>43</v>
@@ -1570,10 +1579,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>89793</v>
+        <v>55695</v>
       </c>
       <c r="F3" s="2">
-        <v>115204</v>
+        <v>37034</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>46</v>
@@ -1582,10 +1591,10 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>12391.434</v>
+        <v>7017.57</v>
       </c>
       <c r="L3" s="2">
-        <v>15898.152</v>
+        <v>4666.284</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>46</v>
@@ -1594,7 +1603,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1605,10 +1614,10 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>76535</v>
+        <v>34191</v>
       </c>
       <c r="F4" s="2">
-        <v>160000</v>
+        <v>32413</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>47</v>
@@ -1617,10 +1626,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>10561.83</v>
+        <v>4308.066</v>
       </c>
       <c r="L4" s="2">
-        <v>22080</v>
+        <v>4084.038</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>47</v>
@@ -1629,7 +1638,7 @@
         <v>54</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1640,10 +1649,10 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>11333</v>
+        <v>7700</v>
       </c>
       <c r="F5" s="2">
-        <v>38292</v>
+        <v>25626</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>50</v>
@@ -1652,10 +1661,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>2130.604</v>
+        <v>592.9</v>
       </c>
       <c r="L5" s="2">
-        <v>7198.896000000001</v>
+        <v>1973.202</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>50</v>
@@ -1675,10 +1684,10 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>14672</v>
+        <v>7904</v>
       </c>
       <c r="F6" s="2">
-        <v>24885.99999999995</v>
+        <v>28177.99999999996</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>53</v>
@@ -1687,10 +1696,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>1731.296</v>
+        <v>371.4880000000001</v>
       </c>
       <c r="L6" s="2">
-        <v>2936.547999999994</v>
+        <v>1324.365999999998</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>53</v>
@@ -1710,10 +1719,10 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>263543</v>
+        <v>119640</v>
       </c>
       <c r="F7" s="4">
-        <v>441815.9999999999</v>
+        <v>152426.9999999999</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>58</v>
@@ -1722,10 +1731,10 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
-        <v>36642.144</v>
+        <v>14072.924</v>
       </c>
       <c r="L7" s="4">
-        <v>62387.488</v>
+        <v>15724.066</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>59</v>
@@ -1734,7 +1743,7 @@
         <v>60</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
